--- a/DOC/受入テスト/受入テスト仕様書_自動請求給料機能.xlsx
+++ b/DOC/受入テスト/受入テスト仕様書_自動請求給料機能.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/受入テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54147324-0404-6344-B2F2-561BE0E58460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BDDC9E-EF49-2F4A-9259-40F66ECF52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
     <sheet name="テスト概要" sheetId="6" r:id="rId2"/>
-    <sheet name="テストシナリオ" sheetId="2" r:id="rId3"/>
+    <sheet name="テスト前データ準備" sheetId="7" r:id="rId3"/>
+    <sheet name="テストシナリオ" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -146,20 +147,6 @@
   </si>
   <si>
     <t>EMS</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アカンウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アカンウト：
-e003@it-softtech.com</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アカンウト：
-test@it-softtech.com</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -215,48 +202,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>①アカンウトでEMSMへログインして、EMSMシステムの「契約情報管理リスト」をクリック
-②新規ボタンをクッリクする
-③テストデータを入力して登録ボタンをクリック</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>ジョウホウヘンコウガメンシャインシンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>取引先情報管理</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ミズカコウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①アカンウトでEMSMへログインして、EMSMシステムの「取引先情報リスト」をクリック
-②新規ボタンをクッリクする
-③テストデータを入力して登録ボタンをクリック</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>ジョウホウヘンコウガメンシャインシンキトウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -283,26 +234,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>①アカンウトでEMSにログインする
-②EMSシステムの「勤怠情報」リンクをクリックする、テストデータを入力して提出ボタンをクリック</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>①契約情報管理リスト画面が開けれる
 ②契約情報更新画面が開けれる
 ③新規した契約情報はcontractテーブルが更新される、更新後の値は入力した値と一致する
@@ -368,45 +299,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ミズカジョウホウコウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①アカンウトでEMSにログインする、EMSシステムの「自動請求」リンクをクリックする
-②「状況確認」ボタンをクッリクする
-③「請求書生成」ボタンをクッリクする
-④「請求書ダウンロード」ボタンをクッリクする
-⑤「検索」ボタンをクッリクする
-</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>シメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -464,16 +356,6 @@
   </si>
   <si>
     <t>EMSMの画面、EMSの画面</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①アカンウトでEMSMへログインして、EMSMシステムの「基本給管理リスト」をクリック
-②「新規追加」ボタンをクリック
-③テストデータを入力する
-④登録ボタンをクッリクする</t>
-    <rPh sb="0" eb="26">
-      <t>ヘンコウコウシンガメンコウシンゴニュウリョクカクニン</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -526,64 +408,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・契約名称：テスト
-・社員氏名：テスト
-・取引先名称：テスト
-・単価：500000
-・精算タイプ：清算あり 
-・契約下限：140
-・控除単価：3000
-・契約上限：180
-・残業単価：5000
-・契約開始日：20250601
-・契約終了日：20250731
-・支払サイト：60
-・原本郵送フラグ：不要
-・タイムレポートパス：/var/user/tomcat/timreport
-・請求書名称：請求書
-・進行ステータス：進行中</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>厚生保険料マスタ更新</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ミズカジョウホウコウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・対象年度：2025
-・対象エリア：東京都
-・計算用標準報酬：200000
-・給料From：500000
-・給料To：600000
-・介護必要ない料率%：0.098
-・介護必要料率%：0.116
-・厚生年金保険料率%：0.183
-・利用ステータス：する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①アカンウトでEMSにログインする、EMSシステムの「マスタ_厚生保険料」リンクをクリックする
-②新規ボタンをクッリクする
-③テストデータを入力して登録ボタンをクリック</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -638,27 +468,6 @@
 ・対象エリア：東京都
 ・徴収率：3
 ・利用ステータス：する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①アカンウトでEMSにログインする、EMSシステムの「マスタ_厚生子育徴収率」リンクをクリックする
-②新規ボタンをクッリクする
-③テストデータを入力して登録ボタンをクリック</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -738,27 +547,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>①アカンウトでEMSにログインする、EMSシステムの「所得税と住民税マスター」リンクをクリックする
-②新規ボタンをクッリクする
-③テストデータを入力して登録ボタンをクリック</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>①登録成功
 ②m_incometaxテーブルが更新される、更新後の値は入力した値と一致する
 ③新規した情報はEMSMシステム所得税と住民税マスター画面に反映する</t>
@@ -814,27 +602,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>①アカンウトでEMSにログインする、EMSシステムの「雇用保険率テーブ」リンクをクリックする
-②新規ボタンをクッリクする
-③テストデータを入力して登録ボタンをクリック</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>①登録成功
 ②m_welfarebabyrateテーブルが更新される、更新後の値は入力した値と一致する
 ③新規した情報はEMSMシステム雇用保険率テーブ画面に反映する</t>
@@ -889,6 +656,371 @@
       <t>ジョウホウカンリ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMにログインする、EMSMシステムの「給料リスト」リンクをクリックする
+②「一括作成」ボタンをクッリクする</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①給料リスト画面が開けれる
+②salaryinfoテーブルが更新される、全ての社員の給料を作成
+③給料情報はEMSMシステム給料リスト画面に反映する</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受入テスト仕様書_社員機能.xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「受入テスト仕様書_社員機能.xlsx」を順番に実施する</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャシャインジョウホウヘンコウガメンシャインシンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全部合格する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルにデータを登録する</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート「テスト前データ準備」</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート「テスト前データ準備」を順番に実施する</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャシャインジョウホウヘンコウガメンシャインシンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データベースのテーブルのデータが、挿入したデータと一致する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMへログインして、EMSMシステムの「基本給管理リスト」をクリック
+②「新規追加」ボタンをクリック
+③テストデータを入力する
+④登録ボタンをクッリクする</t>
+    <rPh sb="0" eb="26">
+      <t>ヘンコウコウシンガメンコウシンゴニュウリョクカクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMへログインして、EMSMシステムの「取引先情報リスト」をクリック
+②新規ボタンをクッリクする
+③テストデータを入力して登録ボタンをクリック</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ジョウホウヘンコウガメンシャインシンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・契約名称：テスト
+・社員氏名：テスト
+・取引先名称：テスト
+・単価：500000
+・精算タイプ：清算あり 
+・契約下限：140
+・控除単価：3000
+・契約上限：180
+・残業単価：5000
+・契約開始日：20250601
+・契約終了日：20250731
+・支払サイト：60
+・原本郵送フラグ：不要
+・タイムレポートパス：/timreport
+・請求書名称：請求書
+・進行ステータス：進行中</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMへログインして、EMSMシステムの「契約情報管理リスト」をクリック
+②新規ボタンをクッリクする
+③テストデータを入力して登録ボタンをクリック</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ジョウホウヘンコウガメンシャインシンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①社員アカンウトでEMSにログインする
+②EMSシステムの「勤怠情報」リンクをクリックする、テストデータを入力して提出ボタンをクリック</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①管理員権限アカンウトでEMSMにログインする、EMSMシステムの「自動請求」リンクをクリックする
+②「状況確認」ボタンをクッリクする
+③「請求書生成」ボタンをクッリクする
+④「請求書ダウンロード」ボタンをクッリクする
+⑤「検索」ボタンをクッリクする
+</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>シメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・対象年度：2025
+・対象エリア：東京都
+・計算用標準報酬：200000
+・給料From：100000
+・給料To：600000
+・介護必要ない料率%：0.098
+・介護必要料率%：0.116
+・厚生年金保険料率%：0.183
+・利用ステータス：する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMにログインする、EMSMシステムの「マスタ_厚生保険料」リンクをクリックする
+②新規ボタンをクッリクする
+③テストデータを入力して登録ボタンをクリック</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMにログインする、EMSMシステムの「マスタ_厚生子育徴収率」リンクをクリックする
+②新規ボタンをクッリクする
+③テストデータを入力して登録ボタンをクリック</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMにログインする、EMSMシステムの「所得税と住民税マスター」リンクをクリックする
+②新規ボタンをクッリクする
+③テストデータを入力して登録ボタンをクリック</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①管理員権限アカンウトでEMSMにログインする、EMSMシステムの「雇用保険率テーブ」リンクをクリックする
+②新規ボタンをクッリクする
+③テストデータを入力して登録ボタンをクリック</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリカキジョウホウニュウリョクコウシンシメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルを照会し、内容は挿入したデータと一致する</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO ems.ofcfunction (functionID, functionName, functionText, authority, functionLink, displayNo, deleteFlg, insertDate, updateDate, sysType) VALUES
+('B2', 'basesalary', '&amp;#xe60c;&amp;emsp;基本給情報リスト', '1', '/emsm/initBaseSalaryList', '2', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('S2', 'company', '&amp;#xe65c;&amp;emsp;取引先情報管理', '1', '/emsm/company', '1', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('S3', 'contract', '&amp;#xe65d;&amp;emsp;契約情報管理', '1', '/emsm/initContractInfoList', '2', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('A7', 'workdetail', '&amp;#xe672;&amp;emsp;勤怠情報', '0', '/workdetail', '1', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '1'),
+('S8', 'RequestList', '&amp;#xe65d;&amp;emsp;自動請求', '1', '/emsm/initRequest', '10', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('W1', 'welfarefee', '&amp;#xe60c;&amp;emsp;マスタ_厚生保険料', '1', '/emsm/initWelfarefeeInfoList', '8', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('W2', 'welfarebaby', '&amp;#xe60c;&amp;emsp;マスタ_厚生子育徴収率', '1', '/emsm/initWelfareBabyInfoList', '8', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('M1', 'incomeTax', '&amp;#xe60c;&amp;emsp;所得税と住民税マスター', '1', '/emsm/initIncomeTaxInfoList', '9', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('S9', 'emplyinsrate', '&amp;#xe60c;&amp;emsp;雇用保険率テーブル', '1', '/emsm/initEmplyinsrateInfoList', '9', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('A6', 'workdetailli', '&amp;#xe60c;&amp;emsp;勤怠リスト', '1', '/emsm/workdetaillist', '3', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2'),
+('A3', 'workInfoList', '&amp;#xe681;&amp;emsp;勤怠情報リスト', '0', '/workinfolist', '５', '0', DATE_FORMAT(CURDATE(), '%Y%m%d'), NULL, '2');</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ofcfunction</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>想定結果</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDL</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -898,7 +1030,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +1041,8 @@
     <font>
       <sz val="9"/>
       <name val="Fj明朝体(ﾓﾄﾔ)"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1032,8 +1166,38 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,6 +1218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB3E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1437,7 +1607,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1449,8 +1619,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1565,8 +1738,8 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1631,8 +1804,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1647,17 +1832,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1667,32 +1849,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,21 +1870,6 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1751,49 +1903,74 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="標準 2" xfId="4" xr:uid="{0F8C47A5-E7DA-4A6A-ACC1-7EF5F199D25F}"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{2D303322-CCD0-40E2-B021-1227DA5DE9FA}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="1" xr:uid="{883413EB-8AE9-4336-8F77-E40A9051CE78}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{B1807F42-9FF7-4250-83E6-08FCFA41AC9E}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{A278CD54-B39F-5940-8CD6-62C697970B70}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2201,7 +2378,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
@@ -2335,7 +2512,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="39" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
@@ -2601,7 +2778,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="17">
@@ -2617,7 +2794,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -2669,8 +2846,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BD8A6-3BF6-6243-B87D-30A16FF7FC1C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="109"/>
+    <col min="2" max="2" width="17" style="109" customWidth="1"/>
+    <col min="3" max="3" width="122.1640625" style="109" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="109" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="109" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="109"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23" customHeight="1">
+      <c r="A1" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409" customHeight="1">
+      <c r="A2" s="111">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO20"/>
+  <dimension ref="A1:BN22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -2678,19 +2926,17 @@
   <cols>
     <col min="1" max="3" width="2.1640625" style="23" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="34" customWidth="1"/>
-    <col min="5" max="12" width="2.1640625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="34" customWidth="1"/>
-    <col min="14" max="19" width="2.1640625" style="23" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" style="23" customWidth="1"/>
-    <col min="21" max="51" width="2.1640625" style="23" customWidth="1"/>
-    <col min="52" max="52" width="5.6640625" style="23" customWidth="1"/>
-    <col min="53" max="63" width="2.1640625" style="23" customWidth="1"/>
-    <col min="64" max="67" width="2.33203125" style="23" customWidth="1"/>
-    <col min="68" max="68" width="2.1640625" style="23" customWidth="1"/>
-    <col min="69" max="16384" width="9.6640625" style="23"/>
+    <col min="5" max="18" width="2.1640625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="23" customWidth="1"/>
+    <col min="20" max="50" width="2.1640625" style="23" customWidth="1"/>
+    <col min="51" max="51" width="5.6640625" style="23" customWidth="1"/>
+    <col min="52" max="62" width="2.1640625" style="23" customWidth="1"/>
+    <col min="63" max="66" width="2.33203125" style="23" customWidth="1"/>
+    <col min="67" max="67" width="2.1640625" style="23" customWidth="1"/>
+    <col min="68" max="16384" width="9.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="21" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2717,8 +2963,8 @@
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25"/>
       <c r="AC1" s="25"/>
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
@@ -2756,1290 +3002,1274 @@
       <c r="BK1" s="25"/>
       <c r="BL1" s="25"/>
       <c r="BM1" s="25"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="27"/>
-    </row>
-    <row r="2" spans="1:67" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="BN1" s="27"/>
+    </row>
+    <row r="2" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="BO2" s="27"/>
-    </row>
-    <row r="3" spans="1:67" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="BO3" s="28"/>
-    </row>
-    <row r="4" spans="1:67" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="BN2" s="27"/>
+    </row>
+    <row r="3" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="BN3" s="28"/>
+    </row>
+    <row r="4" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
+      <c r="A4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="96" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="84" t="s">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="87">
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="100">
         <v>45804</v>
       </c>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="84" t="s">
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="87" t="s">
+      <c r="BH4" s="98"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="88"/>
-      <c r="BN4" s="88"/>
-      <c r="BO4" s="29"/>
-    </row>
-    <row r="5" spans="1:67" s="21" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="73" t="s">
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="93"/>
+      <c r="BM4" s="93"/>
+      <c r="BN4" s="29"/>
+    </row>
+    <row r="5" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="101"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="73" t="s">
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="96"/>
+      <c r="AQ5" s="96"/>
+      <c r="AR5" s="96"/>
+      <c r="AS5" s="96"/>
+      <c r="AT5" s="96"/>
+      <c r="AU5" s="96"/>
+      <c r="AV5" s="96"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="74"/>
-      <c r="BH5" s="73" t="s">
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="79"/>
-      <c r="BM5" s="79"/>
-      <c r="BN5" s="79"/>
-      <c r="BO5" s="22"/>
-    </row>
-    <row r="6" spans="1:67" ht="17" thickTop="1"/>
-    <row r="7" spans="1:67" s="30" customFormat="1">
-      <c r="A7" s="101" t="s">
+      <c r="BH5" s="95"/>
+      <c r="BI5" s="102"/>
+      <c r="BJ5" s="95"/>
+      <c r="BK5" s="96"/>
+      <c r="BL5" s="96"/>
+      <c r="BM5" s="96"/>
+      <c r="BN5" s="22"/>
+    </row>
+    <row r="6" spans="1:66" ht="17" thickTop="1"/>
+    <row r="7" spans="1:66" s="30" customFormat="1">
+      <c r="A7" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="102" t="s">
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="81" t="s">
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="81" t="s">
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="80"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="82"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="82"/>
-      <c r="AW7" s="82"/>
-      <c r="AX7" s="82"/>
-      <c r="AY7" s="82"/>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="81" t="s">
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="80"/>
+      <c r="AP7" s="80"/>
+      <c r="AQ7" s="80"/>
+      <c r="AR7" s="80"/>
+      <c r="AS7" s="80"/>
+      <c r="AT7" s="80"/>
+      <c r="AU7" s="80"/>
+      <c r="AV7" s="80"/>
+      <c r="AW7" s="80"/>
+      <c r="AX7" s="80"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="BB7" s="82"/>
-      <c r="BC7" s="82"/>
-      <c r="BD7" s="82"/>
-      <c r="BE7" s="82"/>
-      <c r="BF7" s="83"/>
-      <c r="BG7" s="81" t="s">
+      <c r="BA7" s="80"/>
+      <c r="BB7" s="80"/>
+      <c r="BC7" s="80"/>
+      <c r="BD7" s="80"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BH7" s="82"/>
-      <c r="BI7" s="82"/>
-      <c r="BJ7" s="82"/>
-      <c r="BK7" s="83"/>
-      <c r="BL7" s="81" t="s">
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="80"/>
+      <c r="BI7" s="80"/>
+      <c r="BJ7" s="81"/>
+      <c r="BK7" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BM7" s="82"/>
-      <c r="BN7" s="82"/>
-      <c r="BO7" s="83"/>
-    </row>
-    <row r="8" spans="1:67" s="34" customFormat="1" ht="206" customHeight="1">
-      <c r="A8" s="105">
+      <c r="BL7" s="80"/>
+      <c r="BM7" s="80"/>
+      <c r="BN7" s="81"/>
+    </row>
+    <row r="8" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A8" s="64">
         <v>1</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="61"/>
-      <c r="AX8" s="61"/>
-      <c r="AY8" s="61"/>
-      <c r="AZ8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="71"/>
+      <c r="AZ8" s="59"/>
       <c r="BA8" s="59"/>
       <c r="BB8" s="59"/>
       <c r="BC8" s="59"/>
       <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
-      <c r="BF8" s="106"/>
-      <c r="BG8" s="60"/>
-      <c r="BH8" s="60"/>
-      <c r="BI8" s="60"/>
-      <c r="BJ8" s="60"/>
-      <c r="BK8" s="107"/>
-      <c r="BL8" s="108"/>
-      <c r="BM8" s="60"/>
-      <c r="BN8" s="60"/>
-      <c r="BO8" s="107"/>
-    </row>
-    <row r="9" spans="1:67" s="34" customFormat="1" ht="206" customHeight="1">
-      <c r="A9" s="105">
+      <c r="BE8" s="60"/>
+      <c r="BF8" s="61"/>
+      <c r="BG8" s="61"/>
+      <c r="BH8" s="61"/>
+      <c r="BI8" s="61"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="61"/>
+      <c r="BM8" s="61"/>
+      <c r="BN8" s="62"/>
+    </row>
+    <row r="9" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A9" s="64">
         <v>2</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="72"/>
+        <v>66</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="59"/>
       <c r="BA9" s="59"/>
       <c r="BB9" s="59"/>
       <c r="BC9" s="59"/>
       <c r="BD9" s="59"/>
-      <c r="BE9" s="59"/>
-      <c r="BF9" s="106"/>
-      <c r="BG9" s="60"/>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="60"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="107"/>
-      <c r="BL9" s="108"/>
-      <c r="BM9" s="60"/>
-      <c r="BN9" s="60"/>
-      <c r="BO9" s="107"/>
-    </row>
-    <row r="10" spans="1:67" s="34" customFormat="1" ht="297" customHeight="1">
-      <c r="A10" s="105">
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="61"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="61"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="63"/>
+      <c r="BL9" s="61"/>
+      <c r="BM9" s="61"/>
+      <c r="BN9" s="62"/>
+    </row>
+    <row r="10" spans="1:66" s="34" customFormat="1" ht="206" customHeight="1">
+      <c r="A10" s="64">
         <v>3</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="35" t="s">
+      <c r="E10" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="72"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="59"/>
       <c r="BA10" s="59"/>
       <c r="BB10" s="59"/>
       <c r="BC10" s="59"/>
       <c r="BD10" s="59"/>
-      <c r="BE10" s="59"/>
-      <c r="BF10" s="106"/>
-      <c r="BG10" s="60"/>
-      <c r="BH10" s="60"/>
-      <c r="BI10" s="60"/>
-      <c r="BJ10" s="60"/>
-      <c r="BK10" s="107"/>
-      <c r="BL10" s="108"/>
-      <c r="BM10" s="60"/>
-      <c r="BN10" s="60"/>
-      <c r="BO10" s="107"/>
-    </row>
-    <row r="11" spans="1:67" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A11" s="109">
+      <c r="BE10" s="60"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="62"/>
+      <c r="BK10" s="63"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="62"/>
+    </row>
+    <row r="11" spans="1:66" s="34" customFormat="1" ht="206" customHeight="1">
+      <c r="A11" s="64">
         <v>4</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="69" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="107"/>
+      <c r="AI11" s="107"/>
+      <c r="AJ11" s="107"/>
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="67"/>
-      <c r="AV11" s="67"/>
-      <c r="AW11" s="67"/>
-      <c r="AX11" s="67"/>
-      <c r="AY11" s="67"/>
-      <c r="AZ11" s="68"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="59"/>
       <c r="BA11" s="59"/>
       <c r="BB11" s="59"/>
       <c r="BC11" s="59"/>
       <c r="BD11" s="59"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="106"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="107"/>
-      <c r="BL11" s="108"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="107"/>
-    </row>
-    <row r="12" spans="1:67" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A12" s="109">
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="61"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="63"/>
+      <c r="BL11" s="61"/>
+      <c r="BM11" s="61"/>
+      <c r="BN11" s="62"/>
+    </row>
+    <row r="12" spans="1:66" s="34" customFormat="1" ht="297" customHeight="1">
+      <c r="A12" s="64">
         <v>5</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="61"/>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="72"/>
+      <c r="E12" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="59"/>
       <c r="BA12" s="59"/>
       <c r="BB12" s="59"/>
       <c r="BC12" s="59"/>
       <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="106"/>
-      <c r="BG12" s="60"/>
-      <c r="BH12" s="60"/>
-      <c r="BI12" s="60"/>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="107"/>
-      <c r="BL12" s="108"/>
-      <c r="BM12" s="60"/>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="107"/>
-    </row>
-    <row r="13" spans="1:67" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A13" s="109">
+      <c r="BE12" s="60"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="61"/>
+      <c r="BH12" s="61"/>
+      <c r="BI12" s="61"/>
+      <c r="BJ12" s="62"/>
+      <c r="BK12" s="63"/>
+      <c r="BL12" s="61"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="62"/>
+    </row>
+    <row r="13" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
+      <c r="A13" s="64">
         <v>6</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="35" t="s">
+      <c r="E13" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="59"/>
       <c r="BA13" s="59"/>
       <c r="BB13" s="59"/>
       <c r="BC13" s="59"/>
       <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="106"/>
-      <c r="BG13" s="60"/>
-      <c r="BH13" s="60"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="60"/>
-      <c r="BK13" s="107"/>
-      <c r="BL13" s="108"/>
-      <c r="BM13" s="60"/>
-      <c r="BN13" s="60"/>
-      <c r="BO13" s="107"/>
-    </row>
-    <row r="14" spans="1:67" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A14" s="109">
+      <c r="BE13" s="60"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="61"/>
+      <c r="BH13" s="61"/>
+      <c r="BI13" s="61"/>
+      <c r="BJ13" s="62"/>
+      <c r="BK13" s="63"/>
+      <c r="BL13" s="61"/>
+      <c r="BM13" s="61"/>
+      <c r="BN13" s="62"/>
+    </row>
+    <row r="14" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
+      <c r="A14" s="64">
         <v>7</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="68"/>
-      <c r="AM14" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="65"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="59"/>
       <c r="BA14" s="59"/>
       <c r="BB14" s="59"/>
       <c r="BC14" s="59"/>
       <c r="BD14" s="59"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="106"/>
-      <c r="BG14" s="60"/>
-      <c r="BH14" s="60"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="107"/>
-      <c r="BL14" s="108"/>
-      <c r="BM14" s="60"/>
-      <c r="BN14" s="60"/>
-      <c r="BO14" s="107"/>
-    </row>
-    <row r="15" spans="1:67" s="34" customFormat="1" ht="409" customHeight="1">
-      <c r="A15" s="109">
+      <c r="BE14" s="60"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="61"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="61"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="63"/>
+      <c r="BL14" s="61"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="62"/>
+    </row>
+    <row r="15" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
+      <c r="A15" s="64">
         <v>8</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="59"/>
       <c r="BA15" s="59"/>
       <c r="BB15" s="59"/>
       <c r="BC15" s="59"/>
       <c r="BD15" s="59"/>
-      <c r="BE15" s="59"/>
-      <c r="BF15" s="106"/>
-      <c r="BG15" s="60"/>
-      <c r="BH15" s="60"/>
-      <c r="BI15" s="60"/>
-      <c r="BJ15" s="60"/>
-      <c r="BK15" s="107"/>
-      <c r="BL15" s="108"/>
-      <c r="BM15" s="60"/>
-      <c r="BN15" s="60"/>
-      <c r="BO15" s="107"/>
-    </row>
-    <row r="16" spans="1:67" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A16" s="109">
+      <c r="BE15" s="60"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="61"/>
+      <c r="BH15" s="61"/>
+      <c r="BI15" s="61"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="63"/>
+      <c r="BL15" s="61"/>
+      <c r="BM15" s="61"/>
+      <c r="BN15" s="62"/>
+    </row>
+    <row r="16" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
+      <c r="A16" s="64">
         <v>9</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="59"/>
       <c r="BA16" s="59"/>
       <c r="BB16" s="59"/>
       <c r="BC16" s="59"/>
       <c r="BD16" s="59"/>
-      <c r="BE16" s="59"/>
-      <c r="BF16" s="106"/>
-      <c r="BG16" s="60"/>
-      <c r="BH16" s="60"/>
-      <c r="BI16" s="60"/>
-      <c r="BJ16" s="60"/>
-      <c r="BK16" s="107"/>
-      <c r="BL16" s="108"/>
-      <c r="BM16" s="60"/>
-      <c r="BN16" s="60"/>
-      <c r="BO16" s="107"/>
-    </row>
-    <row r="17" spans="1:67" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A17" s="109">
+      <c r="BE16" s="60"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="61"/>
+      <c r="BI16" s="61"/>
+      <c r="BJ16" s="62"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="61"/>
+      <c r="BM16" s="61"/>
+      <c r="BN16" s="62"/>
+    </row>
+    <row r="17" spans="1:66" s="34" customFormat="1" ht="409" customHeight="1">
+      <c r="A17" s="64">
         <v>10</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="61"/>
-      <c r="AV17" s="61"/>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="61"/>
-      <c r="AY17" s="61"/>
-      <c r="AZ17" s="72"/>
+      <c r="E17" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="59"/>
       <c r="BA17" s="59"/>
       <c r="BB17" s="59"/>
       <c r="BC17" s="59"/>
       <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="106"/>
-      <c r="BG17" s="60"/>
-      <c r="BH17" s="60"/>
-      <c r="BI17" s="60"/>
-      <c r="BJ17" s="60"/>
-      <c r="BK17" s="107"/>
-      <c r="BL17" s="108"/>
-      <c r="BM17" s="60"/>
-      <c r="BN17" s="60"/>
-      <c r="BO17" s="107"/>
-    </row>
-    <row r="18" spans="1:67">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="32"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
-      <c r="AY18" s="32"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="32"/>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="33"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="33"/>
-    </row>
-    <row r="19" spans="1:67">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="32"/>
-      <c r="AW19" s="32"/>
-      <c r="AX19" s="32"/>
-      <c r="AY19" s="32"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="32"/>
-      <c r="BC19" s="32"/>
-      <c r="BD19" s="32"/>
-      <c r="BE19" s="32"/>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="32"/>
-      <c r="BI19" s="32"/>
-      <c r="BJ19" s="32"/>
-      <c r="BK19" s="33"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="32"/>
-      <c r="BN19" s="32"/>
-      <c r="BO19" s="33"/>
-    </row>
-    <row r="20" spans="1:67">
+      <c r="BE17" s="60"/>
+      <c r="BF17" s="61"/>
+      <c r="BG17" s="61"/>
+      <c r="BH17" s="61"/>
+      <c r="BI17" s="61"/>
+      <c r="BJ17" s="62"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="61"/>
+      <c r="BM17" s="61"/>
+      <c r="BN17" s="62"/>
+    </row>
+    <row r="18" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
+      <c r="A18" s="64">
+        <v>11</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="60"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="62"/>
+      <c r="BK18" s="63"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="62"/>
+    </row>
+    <row r="19" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
+      <c r="A19" s="64">
+        <v>12</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="59"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="59"/>
+      <c r="BC19" s="59"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="60"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="61"/>
+      <c r="BH19" s="61"/>
+      <c r="BI19" s="61"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="61"/>
+      <c r="BM19" s="61"/>
+      <c r="BN19" s="62"/>
+    </row>
+    <row r="20" spans="1:66">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -4052,15 +4282,15 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="31"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
@@ -4076,9 +4306,9 @@
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
       <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="31"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="32"/>
       <c r="AN20" s="32"/>
       <c r="AO20" s="32"/>
       <c r="AP20" s="32"/>
@@ -4090,131 +4320,282 @@
       <c r="AV20" s="32"/>
       <c r="AW20" s="32"/>
       <c r="AX20" s="32"/>
-      <c r="AY20" s="32"/>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="31"/>
+      <c r="AY20" s="33"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="32"/>
       <c r="BB20" s="32"/>
       <c r="BC20" s="32"/>
       <c r="BD20" s="32"/>
-      <c r="BE20" s="32"/>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="31"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="32"/>
       <c r="BH20" s="32"/>
       <c r="BI20" s="32"/>
-      <c r="BJ20" s="32"/>
-      <c r="BK20" s="33"/>
-      <c r="BL20" s="31"/>
+      <c r="BJ20" s="33"/>
+      <c r="BK20" s="31"/>
+      <c r="BL20" s="32"/>
       <c r="BM20" s="32"/>
-      <c r="BN20" s="32"/>
-      <c r="BO20" s="33"/>
+      <c r="BN20" s="33"/>
+    </row>
+    <row r="21" spans="1:66">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="33"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="33"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="33"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="32"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="33"/>
+    </row>
+    <row r="22" spans="1:66">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="33"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="33"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="BA17:BF17"/>
-    <mergeCell ref="BG17:BK17"/>
-    <mergeCell ref="BL17:BO17"/>
+  <mergeCells count="121">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:AK18"/>
+    <mergeCell ref="AL18:AY18"/>
+    <mergeCell ref="AZ18:BE18"/>
+    <mergeCell ref="BF18:BJ18"/>
+    <mergeCell ref="BK18:BN18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:AK19"/>
+    <mergeCell ref="AL19:AY19"/>
+    <mergeCell ref="AZ19:BE19"/>
+    <mergeCell ref="BF19:BJ19"/>
+    <mergeCell ref="BK19:BN19"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BN9"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="BF11:BJ11"/>
+    <mergeCell ref="BK11:BN11"/>
+    <mergeCell ref="AL12:AY12"/>
+    <mergeCell ref="AZ12:BE12"/>
+    <mergeCell ref="BF12:BJ12"/>
+    <mergeCell ref="BK12:BN12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:AK12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:AK8"/>
+    <mergeCell ref="AL8:AY8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="AZ11:BE11"/>
+    <mergeCell ref="AZ9:BE9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:AK10"/>
+    <mergeCell ref="AL10:AY10"/>
+    <mergeCell ref="AZ10:BE10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:AK9"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:AK11"/>
+    <mergeCell ref="AL11:AY11"/>
+    <mergeCell ref="AL9:AY9"/>
+    <mergeCell ref="AZ8:BE8"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="AZ7:BE7"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="BK7:BN7"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="BJ4:BM4"/>
+    <mergeCell ref="BA5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:AK7"/>
+    <mergeCell ref="AL7:AY7"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AW4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AW5"/>
+    <mergeCell ref="AZ13:BE13"/>
+    <mergeCell ref="BF13:BJ13"/>
+    <mergeCell ref="BK13:BN13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:AK14"/>
+    <mergeCell ref="AL14:AY14"/>
+    <mergeCell ref="AZ14:BE14"/>
+    <mergeCell ref="BF14:BJ14"/>
+    <mergeCell ref="BK14:BN14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:AK13"/>
+    <mergeCell ref="AL13:AY13"/>
+    <mergeCell ref="AZ17:BE17"/>
+    <mergeCell ref="BF17:BJ17"/>
+    <mergeCell ref="BK17:BN17"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="E17:L17"/>
-    <mergeCell ref="N17:T17"/>
-    <mergeCell ref="U17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="BA15:BF15"/>
-    <mergeCell ref="BG15:BK15"/>
-    <mergeCell ref="BL15:BO15"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:AK17"/>
+    <mergeCell ref="AL17:AY17"/>
+    <mergeCell ref="AZ15:BE15"/>
+    <mergeCell ref="BF15:BJ15"/>
+    <mergeCell ref="BK15:BN15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:L16"/>
-    <mergeCell ref="N16:T16"/>
-    <mergeCell ref="U16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="BA16:BF16"/>
-    <mergeCell ref="BG16:BK16"/>
-    <mergeCell ref="BL16:BO16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:AK16"/>
+    <mergeCell ref="AL16:AY16"/>
+    <mergeCell ref="AZ16:BE16"/>
+    <mergeCell ref="BF16:BJ16"/>
+    <mergeCell ref="BK16:BN16"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="E15:L15"/>
-    <mergeCell ref="N15:T15"/>
-    <mergeCell ref="U15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="BA13:BF13"/>
-    <mergeCell ref="BG13:BK13"/>
-    <mergeCell ref="BL13:BO13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="N14:T14"/>
-    <mergeCell ref="U14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="BA14:BF14"/>
-    <mergeCell ref="BG14:BK14"/>
-    <mergeCell ref="BL14:BO14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="U13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AL7"/>
-    <mergeCell ref="AM7:AZ7"/>
-    <mergeCell ref="A2:AB3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="W4:AX4"/>
-    <mergeCell ref="BK5:BN5"/>
-    <mergeCell ref="BA7:BF7"/>
-    <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="BB4:BG4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="BB5:BG5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="W5:AX5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="BA11:BF11"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="BA10:BF10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="U9:AL9"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="N8:T8"/>
-    <mergeCell ref="U8:AL8"/>
-    <mergeCell ref="U11:AL11"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="BL8:BO8"/>
-    <mergeCell ref="BL11:BO11"/>
-    <mergeCell ref="BG11:BK11"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="BA8:BF8"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BO9"/>
-    <mergeCell ref="BG10:BK10"/>
-    <mergeCell ref="BL10:BO10"/>
-    <mergeCell ref="BA12:BF12"/>
-    <mergeCell ref="BG12:BK12"/>
-    <mergeCell ref="BL12:BO12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="N12:T12"/>
-    <mergeCell ref="U12:AL12"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:AK15"/>
+    <mergeCell ref="AL15:AY15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/受入テスト/受入テスト仕様書_自動請求給料機能.xlsx
+++ b/DOC/受入テスト/受入テスト仕様書_自動請求給料機能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/受入テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BDDC9E-EF49-2F4A-9259-40F66ECF52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE370BF-E296-924C-8F87-D582BD8488B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -382,17 +382,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・社員氏名：テスト
-・基本給：500000
-・対象年度：2025
-・稼働時間From：20250101
-・稼働時間To：20251231
-・残業単価（自動生成）：0.024689857125228584
-・控除単価（自動生成）：0.02469123487334705
-・進行ステータス：する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・取引先名称：テスト
 ・取引先種類：法人 
 ・郵便番号：1234567
@@ -517,36 +506,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・社員名：テスト
-・対象年度：2025
-・一月所得税：31270
-・二月所得税：31270
-・三月所得税：31270
-・四月所得税：31270
-・五月所得税：31270
-・六月所得税：31270
-・七月所得税：31270
-・八月所得税：31270
-・九月所得税：31270
-・十月所得税：31270
-・十一月所得税：31270
-・十二月所得税：31270
-・一月住民税：25000
-・二月住民税：25000
-・三月住民税：25000
-・四月住民税：25000
-・五月住民税：25000
-・六月住民税：25000
-・七月住民税：25000
-・八月住民税：25000
-・九月住民税：25000
-・十月住民税：25000
-・十一月住民税：25000
-・十二月住民税：25000
-・利用ステータス：する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>①登録成功
 ②m_incometaxテーブルが更新される、更新後の値は入力した値と一致する
 ③新規した情報はEMSMシステム所得税と住民税マスター画面に反映する</t>
@@ -777,25 +736,6 @@
     <rPh sb="33" eb="37">
       <t>ジョウホウヘンコウガメンシャインシンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・契約名称：テスト
-・社員氏名：テスト
-・取引先名称：テスト
-・単価：500000
-・精算タイプ：清算あり 
-・契約下限：140
-・控除単価：3000
-・契約上限：180
-・残業単価：5000
-・契約開始日：20250601
-・契約終了日：20250731
-・支払サイト：60
-・原本郵送フラグ：不要
-・タイムレポートパス：/timreport
-・請求書名称：請求書
-・進行ステータス：進行中</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -873,18 +813,6 @@
     <rPh sb="98" eb="100">
       <t>シメイザイセキセイベツオトコセイネンガッピネンレイニュウシャネンガッピシャレイユウビンバンゴウジュウショサイタマケンアサカシデンワバンゴウコジンバンゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・対象年度：2025
-・対象エリア：東京都
-・計算用標準報酬：200000
-・給料From：100000
-・給料To：600000
-・介護必要ない料率%：0.098
-・介護必要料率%：0.116
-・厚生年金保険料率%：0.183
-・利用ステータス：する</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1021,6 +949,123 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_welfarefee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO ems.m_welfarefee VALUES
+('1', '2025', '東京都', '88000', '0', '93000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('2', '2025', '東京都', '98000', '93000', '101000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('3', '2025', '東京都', '104000', '101000', '107000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('4', '2025', '東京都', '110000', '107000', '114000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('5', '2025', '東京都', '118000', '114000', '122000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('6', '2025', '東京都', '126000', '122000', '130000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('7', '2025', '東京都', '134000', '130000', '138000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('8', '2025', '東京都', '142000', '138000', '146000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('9', '2025', '東京都', '150000', '146000', '155000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('10', '2025', '東京都', '160000', '155000', '165000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('11', '2025', '東京都', '170000', '165000', '175000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('12', '2025', '東京都', '180000', '175000', '185000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('13', '2025', '東京都', '190000', '185000', '195000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('14', '2025', '東京都', '200000', '195000', '210000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('15', '2025', '東京都', '220000', '210000', '230000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('16', '2025', '東京都', '240000', '230000', '250000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('17', '2025', '東京都', '260000', '250000', '270000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('18', '2025', '東京都', '280000', '270000', '290000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('19', '2025', '東京都', '300000', '290000', '310000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('20', '2025', '東京都', '320000', '310000', '330000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('21', '2025', '東京都', '340000', '330000', '350000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('22', '2025', '東京都', '360000', '350000', '370000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('23', '2025', '東京都', '380000', '370000', '395000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('24', '2025', '東京都', '410000', '395000', '425000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('25', '2025', '東京都', '440000', '425000', '455000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('26', '2025', '東京都', '470000', '455000', '485000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('27', '2025', '東京都', '500000', '485000', '515000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('28', '2025', '東京都', '530000', '515000', '545000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('29', '2025', '東京都', '560000', '545000', '575000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('30', '2025', '東京都', '590000', '575000', '605000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('31', '2025', '東京都', '620000', '605000', '635000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('32', '2025', '東京都', '650000', '635000', '665000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('33', '2025', '東京都', '680000', '665000', '695000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('34', '2025', '東京都', '710000', '695000', '730000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('35', '2025', '東京都', '750000', '730000', '770000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('36', '2025', '東京都', '790000', '770000', '810000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('37', '2025', '東京都', '830000', '810000', '855000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('38', '2025', '東京都', '880000', '855000', '905000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('39', '2025', '東京都', '930000', '905000', '955000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('40', '2025', '東京都', '980000', '955000', '1005000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('41', '2025', '東京都', '1030000', '1005000', '1055000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('42', '2025', '東京都', '1090000', '1055000', '1115000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('43', '2025', '東京都', '1150000', '1115000', '1175000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('44', '2025', '東京都', '1210000', '1175000', '1235000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('45', '2025', '東京都', '1270000', '1235000', '1295000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('46', '2025', '東京都', '1330000', '1295000', '1355000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('47', '2025', '東京都', '1390000', '1355000', '9999999', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d'));</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>・社員氏名：テスト
+・基本給：500000
+・対象年度：2025
+・稼働時間From：140
+・稼働時間To：180
+・残業単価（自動生成）：2777.777777777778
+・控除単価（自動生成）：3571.4285714285716
+・進行ステータス：する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・契約名称：テスト
+・社員氏名：テスト
+・取引先名称：テスト
+・単価：600000
+・精算タイプ：清算あり 
+・契約下限：140
+・控除単価：4285
+・契約上限：180
+・残業単価：3333
+・契約開始日：20250601
+・契約終了日：20250731
+・支払サイト：60
+・原本郵送フラグ：不要
+・進行ステータス：進行中</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート「テスト前データ準備」のNo2を実施する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・社員名：テスト
+・対象年度：2025
+・一月所得税：29652
+・二月所得税：29652
+・三月所得税：29652
+・四月所得税：29652
+・五月所得税：29652
+・六月所得税：29652
+・七月所得税：29652
+・八月所得税：29652
+・九月所得税：29652
+・十月所得税：29652
+・十一月所得税：29652
+・十二月所得税：29652
+・一月住民税：33167
+・二月住民税：33167
+・三月住民税：33167
+・四月住民税：33167
+・五月住民税：33167
+・六月住民税：33167
+・七月住民税：33167
+・八月住民税：33167
+・九月住民税：33167
+・十月住民税：33167
+・十一月住民税：33167
+・十二月住民税：33167
+・利用ステータス：する</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1741,6 +1786,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1801,6 +1858,27 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,12 +1894,6 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1830,24 +1902,51 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1861,15 +1960,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1903,36 +1993,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1944,24 +2007,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2360,16 +2405,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -2377,20 +2422,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17">
@@ -2415,58 +2460,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="53"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="55"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="59"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17">
@@ -2491,58 +2536,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="48"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17">
@@ -2853,62 +2898,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="109"/>
-    <col min="2" max="2" width="17" style="109" customWidth="1"/>
-    <col min="3" max="3" width="122.1640625" style="109" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="109" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="109" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="109"/>
+    <col min="1" max="1" width="10.83203125" style="39"/>
+    <col min="2" max="2" width="17" style="39" customWidth="1"/>
+    <col min="3" max="3" width="122.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="39" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="39" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409" customHeight="1">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" ht="409.6">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="112" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409" customHeight="1">
-      <c r="A2" s="111">
-        <v>1</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="D3" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
@@ -3005,1269 +3058,1269 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="97" t="s">
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="100">
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="89">
         <v>45804</v>
       </c>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="97" t="s">
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="100" t="s">
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="93"/>
-      <c r="BM4" s="93"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="90"/>
       <c r="BN4" s="29"/>
     </row>
     <row r="5" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="101" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="96"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="96"/>
-      <c r="AK5" s="96"/>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="96"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="96"/>
-      <c r="AQ5" s="96"/>
-      <c r="AR5" s="96"/>
-      <c r="AS5" s="96"/>
-      <c r="AT5" s="96"/>
-      <c r="AU5" s="96"/>
-      <c r="AV5" s="96"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="101" t="s">
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="95"/>
-      <c r="BB5" s="95"/>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="101" t="s">
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="81"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BH5" s="95"/>
-      <c r="BI5" s="102"/>
-      <c r="BJ5" s="95"/>
-      <c r="BK5" s="96"/>
-      <c r="BL5" s="96"/>
-      <c r="BM5" s="96"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="81"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="82"/>
       <c r="BN5" s="22"/>
     </row>
     <row r="6" spans="1:66" ht="17" thickTop="1"/>
     <row r="7" spans="1:66" s="30" customFormat="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="79" t="s">
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="79" t="s">
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="80"/>
-      <c r="AO7" s="80"/>
-      <c r="AP7" s="80"/>
-      <c r="AQ7" s="80"/>
-      <c r="AR7" s="80"/>
-      <c r="AS7" s="80"/>
-      <c r="AT7" s="80"/>
-      <c r="AU7" s="80"/>
-      <c r="AV7" s="80"/>
-      <c r="AW7" s="80"/>
-      <c r="AX7" s="80"/>
-      <c r="AY7" s="81"/>
-      <c r="AZ7" s="79" t="s">
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="BA7" s="80"/>
-      <c r="BB7" s="80"/>
-      <c r="BC7" s="80"/>
-      <c r="BD7" s="80"/>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="79" t="s">
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="84"/>
+      <c r="BE7" s="85"/>
+      <c r="BF7" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="BG7" s="80"/>
-      <c r="BH7" s="80"/>
-      <c r="BI7" s="80"/>
-      <c r="BJ7" s="81"/>
-      <c r="BK7" s="79" t="s">
+      <c r="BG7" s="84"/>
+      <c r="BH7" s="84"/>
+      <c r="BI7" s="84"/>
+      <c r="BJ7" s="85"/>
+      <c r="BK7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="BL7" s="80"/>
-      <c r="BM7" s="80"/>
-      <c r="BN7" s="81"/>
+      <c r="BL7" s="84"/>
+      <c r="BM7" s="84"/>
+      <c r="BN7" s="85"/>
     </row>
     <row r="8" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A8" s="64">
+      <c r="A8" s="63">
         <v>1</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="69" t="s">
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="72"/>
+      <c r="BJ8" s="73"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="73"/>
+    </row>
+    <row r="9" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A9" s="63">
+        <v>2</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="65" t="s">
+      <c r="E9" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="71"/>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="59"/>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="61"/>
-      <c r="BH8" s="61"/>
-      <c r="BI8" s="61"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="61"/>
-      <c r="BM8" s="61"/>
-      <c r="BN8" s="62"/>
-    </row>
-    <row r="9" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A9" s="64">
-        <v>2</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="35" t="s">
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66" t="s">
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="71"/>
-      <c r="AZ9" s="59"/>
-      <c r="BA9" s="59"/>
-      <c r="BB9" s="59"/>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="61"/>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="62"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="73"/>
+      <c r="BK9" s="74"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" s="34" customFormat="1" ht="206" customHeight="1">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <v>3</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="70"/>
-      <c r="AL10" s="65" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="59"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="59"/>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="61"/>
-      <c r="BJ10" s="62"/>
-      <c r="BK10" s="63"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="62"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="72"/>
+      <c r="BG10" s="72"/>
+      <c r="BH10" s="72"/>
+      <c r="BI10" s="72"/>
+      <c r="BJ10" s="73"/>
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="72"/>
+      <c r="BM10" s="72"/>
+      <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" s="34" customFormat="1" ht="206" customHeight="1">
-      <c r="A11" s="64">
+      <c r="A11" s="63">
         <v>4</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="107"/>
-      <c r="AI11" s="107"/>
-      <c r="AJ11" s="107"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="65" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="80"/>
+      <c r="AL11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="59"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="59"/>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="62"/>
-      <c r="BK11" s="63"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="62"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="72"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="72"/>
+      <c r="BI11" s="72"/>
+      <c r="BJ11" s="73"/>
+      <c r="BK11" s="74"/>
+      <c r="BL11" s="72"/>
+      <c r="BM11" s="72"/>
+      <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" s="34" customFormat="1" ht="297" customHeight="1">
-      <c r="A12" s="64">
+      <c r="A12" s="63">
         <v>5</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="65" t="s">
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="80"/>
+      <c r="AL12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="71"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="61"/>
-      <c r="BG12" s="61"/>
-      <c r="BH12" s="61"/>
-      <c r="BI12" s="61"/>
-      <c r="BJ12" s="62"/>
-      <c r="BK12" s="63"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="61"/>
-      <c r="BN12" s="62"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="78"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="72"/>
+      <c r="BG12" s="72"/>
+      <c r="BH12" s="72"/>
+      <c r="BI12" s="72"/>
+      <c r="BJ12" s="73"/>
+      <c r="BK12" s="74"/>
+      <c r="BL12" s="72"/>
+      <c r="BM12" s="72"/>
+      <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A13" s="64">
+      <c r="A13" s="63">
         <v>6</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="72" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="70"/>
-      <c r="AL13" s="65" t="s">
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="61"/>
-      <c r="BG13" s="61"/>
-      <c r="BH13" s="61"/>
-      <c r="BI13" s="61"/>
-      <c r="BJ13" s="62"/>
-      <c r="BK13" s="63"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="61"/>
-      <c r="BN13" s="62"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="72"/>
+      <c r="BH13" s="72"/>
+      <c r="BI13" s="72"/>
+      <c r="BJ13" s="73"/>
+      <c r="BK13" s="74"/>
+      <c r="BL13" s="72"/>
+      <c r="BM13" s="72"/>
+      <c r="BN13" s="73"/>
     </row>
     <row r="14" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A14" s="64">
+      <c r="A14" s="63">
         <v>7</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66" t="s">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="65" t="s">
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="60"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="63"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="62"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="78"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="71"/>
+      <c r="BF14" s="72"/>
+      <c r="BG14" s="72"/>
+      <c r="BH14" s="72"/>
+      <c r="BI14" s="72"/>
+      <c r="BJ14" s="73"/>
+      <c r="BK14" s="74"/>
+      <c r="BL14" s="72"/>
+      <c r="BM14" s="72"/>
+      <c r="BN14" s="73"/>
     </row>
     <row r="15" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A15" s="64">
+      <c r="A15" s="63">
         <v>8</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="59"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="59"/>
-      <c r="BC15" s="59"/>
-      <c r="BD15" s="59"/>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="61"/>
-      <c r="BG15" s="61"/>
-      <c r="BH15" s="61"/>
-      <c r="BI15" s="61"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="61"/>
-      <c r="BM15" s="61"/>
-      <c r="BN15" s="62"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
+      <c r="BC15" s="70"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="71"/>
+      <c r="BF15" s="72"/>
+      <c r="BG15" s="72"/>
+      <c r="BH15" s="72"/>
+      <c r="BI15" s="72"/>
+      <c r="BJ15" s="73"/>
+      <c r="BK15" s="74"/>
+      <c r="BL15" s="72"/>
+      <c r="BM15" s="72"/>
+      <c r="BN15" s="73"/>
     </row>
     <row r="16" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A16" s="64">
+      <c r="A16" s="63">
         <v>9</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="72" t="s">
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="59"/>
-      <c r="BA16" s="59"/>
-      <c r="BB16" s="59"/>
-      <c r="BC16" s="59"/>
-      <c r="BD16" s="59"/>
-      <c r="BE16" s="60"/>
-      <c r="BF16" s="61"/>
-      <c r="BG16" s="61"/>
-      <c r="BH16" s="61"/>
-      <c r="BI16" s="61"/>
-      <c r="BJ16" s="62"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="61"/>
-      <c r="BM16" s="61"/>
-      <c r="BN16" s="62"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="66"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="72"/>
+      <c r="BJ16" s="73"/>
+      <c r="BK16" s="74"/>
+      <c r="BL16" s="72"/>
+      <c r="BM16" s="72"/>
+      <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" s="34" customFormat="1" ht="409" customHeight="1">
-      <c r="A17" s="64">
+      <c r="A17" s="63">
         <v>10</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="59"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="59"/>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="61"/>
-      <c r="BG17" s="61"/>
-      <c r="BH17" s="61"/>
-      <c r="BI17" s="61"/>
-      <c r="BJ17" s="62"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="61"/>
-      <c r="BM17" s="61"/>
-      <c r="BN17" s="62"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="71"/>
+      <c r="BF17" s="72"/>
+      <c r="BG17" s="72"/>
+      <c r="BH17" s="72"/>
+      <c r="BI17" s="72"/>
+      <c r="BJ17" s="73"/>
+      <c r="BK17" s="74"/>
+      <c r="BL17" s="72"/>
+      <c r="BM17" s="72"/>
+      <c r="BN17" s="73"/>
     </row>
     <row r="18" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A18" s="64">
+      <c r="A18" s="63">
         <v>11</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="62"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="62"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="66"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="70"/>
+      <c r="BE18" s="71"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="72"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="73"/>
+      <c r="BK18" s="74"/>
+      <c r="BL18" s="72"/>
+      <c r="BM18" s="72"/>
+      <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A19" s="64">
+      <c r="A19" s="63">
         <v>12</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="59"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="59"/>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="61"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="61"/>
-      <c r="BN19" s="62"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="64"/>
+      <c r="AX19" s="64"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
+      <c r="BC19" s="70"/>
+      <c r="BD19" s="70"/>
+      <c r="BE19" s="71"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="72"/>
+      <c r="BH19" s="72"/>
+      <c r="BI19" s="72"/>
+      <c r="BJ19" s="73"/>
+      <c r="BK19" s="74"/>
+      <c r="BL19" s="72"/>
+      <c r="BM19" s="72"/>
+      <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66">
       <c r="A20" s="31"/>
@@ -4475,103 +4528,6 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:AK18"/>
-    <mergeCell ref="AL18:AY18"/>
-    <mergeCell ref="AZ18:BE18"/>
-    <mergeCell ref="BF18:BJ18"/>
-    <mergeCell ref="BK18:BN18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:AK19"/>
-    <mergeCell ref="AL19:AY19"/>
-    <mergeCell ref="AZ19:BE19"/>
-    <mergeCell ref="BF19:BJ19"/>
-    <mergeCell ref="BK19:BN19"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BF9:BJ9"/>
-    <mergeCell ref="BK9:BN9"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="BF11:BJ11"/>
-    <mergeCell ref="BK11:BN11"/>
-    <mergeCell ref="AL12:AY12"/>
-    <mergeCell ref="AZ12:BE12"/>
-    <mergeCell ref="BF12:BJ12"/>
-    <mergeCell ref="BK12:BN12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:AK12"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:AK8"/>
-    <mergeCell ref="AL8:AY8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="AZ11:BE11"/>
-    <mergeCell ref="AZ9:BE9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:AK10"/>
-    <mergeCell ref="AL10:AY10"/>
-    <mergeCell ref="AZ10:BE10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:AK9"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:AK11"/>
-    <mergeCell ref="AL11:AY11"/>
-    <mergeCell ref="AL9:AY9"/>
-    <mergeCell ref="AZ8:BE8"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="AZ7:BE7"/>
-    <mergeCell ref="BF7:BJ7"/>
-    <mergeCell ref="BK7:BN7"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="BA4:BF4"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="BJ4:BM4"/>
-    <mergeCell ref="BA5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:AK7"/>
-    <mergeCell ref="AL7:AY7"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AW4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AW5"/>
-    <mergeCell ref="AZ13:BE13"/>
-    <mergeCell ref="BF13:BJ13"/>
-    <mergeCell ref="BK13:BN13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:AK14"/>
-    <mergeCell ref="AL14:AY14"/>
-    <mergeCell ref="AZ14:BE14"/>
-    <mergeCell ref="BF14:BJ14"/>
-    <mergeCell ref="BK14:BN14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:AK13"/>
-    <mergeCell ref="AL13:AY13"/>
     <mergeCell ref="AZ17:BE17"/>
     <mergeCell ref="BF17:BJ17"/>
     <mergeCell ref="BK17:BN17"/>
@@ -4596,6 +4552,103 @@
     <mergeCell ref="M15:S15"/>
     <mergeCell ref="T15:AK15"/>
     <mergeCell ref="AL15:AY15"/>
+    <mergeCell ref="AZ13:BE13"/>
+    <mergeCell ref="BF13:BJ13"/>
+    <mergeCell ref="BK13:BN13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:AK14"/>
+    <mergeCell ref="AL14:AY14"/>
+    <mergeCell ref="AZ14:BE14"/>
+    <mergeCell ref="BF14:BJ14"/>
+    <mergeCell ref="BK14:BN14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:AK13"/>
+    <mergeCell ref="AL13:AY13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:AK7"/>
+    <mergeCell ref="AL7:AY7"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AW4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AW5"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="AZ7:BE7"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="BK7:BN7"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="BJ4:BM4"/>
+    <mergeCell ref="BA5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:AK12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:AK8"/>
+    <mergeCell ref="AL8:AY8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:AK10"/>
+    <mergeCell ref="AL10:AY10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:AK9"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:AK11"/>
+    <mergeCell ref="AL11:AY11"/>
+    <mergeCell ref="AL9:AY9"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BN9"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="BF11:BJ11"/>
+    <mergeCell ref="BK11:BN11"/>
+    <mergeCell ref="AL12:AY12"/>
+    <mergeCell ref="AZ12:BE12"/>
+    <mergeCell ref="BF12:BJ12"/>
+    <mergeCell ref="BK12:BN12"/>
+    <mergeCell ref="AZ11:BE11"/>
+    <mergeCell ref="AZ9:BE9"/>
+    <mergeCell ref="AZ10:BE10"/>
+    <mergeCell ref="AZ8:BE8"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:AK18"/>
+    <mergeCell ref="AL18:AY18"/>
+    <mergeCell ref="AZ18:BE18"/>
+    <mergeCell ref="BF18:BJ18"/>
+    <mergeCell ref="BK18:BN18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:AK19"/>
+    <mergeCell ref="AL19:AY19"/>
+    <mergeCell ref="AZ19:BE19"/>
+    <mergeCell ref="BF19:BJ19"/>
+    <mergeCell ref="BK19:BN19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/受入テスト/受入テスト仕様書_自動請求給料機能.xlsx
+++ b/DOC/受入テスト/受入テスト仕様書_自動請求給料機能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/受入テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE370BF-E296-924C-8F87-D582BD8488B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75A109-7736-164E-9F39-4A60799F93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,57 +955,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO ems.m_welfarefee VALUES
-('1', '2025', '東京都', '88000', '0', '93000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('2', '2025', '東京都', '98000', '93000', '101000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('3', '2025', '東京都', '104000', '101000', '107000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('4', '2025', '東京都', '110000', '107000', '114000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('5', '2025', '東京都', '118000', '114000', '122000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('6', '2025', '東京都', '126000', '122000', '130000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('7', '2025', '東京都', '134000', '130000', '138000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('8', '2025', '東京都', '142000', '138000', '146000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('9', '2025', '東京都', '150000', '146000', '155000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('10', '2025', '東京都', '160000', '155000', '165000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('11', '2025', '東京都', '170000', '165000', '175000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('12', '2025', '東京都', '180000', '175000', '185000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('13', '2025', '東京都', '190000', '185000', '195000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('14', '2025', '東京都', '200000', '195000', '210000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('15', '2025', '東京都', '220000', '210000', '230000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('16', '2025', '東京都', '240000', '230000', '250000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('17', '2025', '東京都', '260000', '250000', '270000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('18', '2025', '東京都', '280000', '270000', '290000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('19', '2025', '東京都', '300000', '290000', '310000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('20', '2025', '東京都', '320000', '310000', '330000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('21', '2025', '東京都', '340000', '330000', '350000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('22', '2025', '東京都', '360000', '350000', '370000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('23', '2025', '東京都', '380000', '370000', '395000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('24', '2025', '東京都', '410000', '395000', '425000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('25', '2025', '東京都', '440000', '425000', '455000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('26', '2025', '東京都', '470000', '455000', '485000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('27', '2025', '東京都', '500000', '485000', '515000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('28', '2025', '東京都', '530000', '515000', '545000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('29', '2025', '東京都', '560000', '545000', '575000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('30', '2025', '東京都', '590000', '575000', '605000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('31', '2025', '東京都', '620000', '605000', '635000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('32', '2025', '東京都', '650000', '635000', '665000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('33', '2025', '東京都', '680000', '665000', '695000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('34', '2025', '東京都', '710000', '695000', '730000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('35', '2025', '東京都', '750000', '730000', '770000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('36', '2025', '東京都', '790000', '770000', '810000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('37', '2025', '東京都', '830000', '810000', '855000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('38', '2025', '東京都', '880000', '855000', '905000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('39', '2025', '東京都', '930000', '905000', '955000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('40', '2025', '東京都', '980000', '955000', '1005000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('41', '2025', '東京都', '1030000', '1005000', '1055000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('42', '2025', '東京都', '1090000', '1055000', '1115000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('43', '2025', '東京都', '1150000', '1115000', '1175000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('44', '2025', '東京都', '1210000', '1175000', '1235000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('45', '2025', '東京都', '1270000', '1235000', '1295000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('46', '2025', '東京都', '1330000', '1295000', '1355000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
-('47', '2025', '東京都', '1390000', '1355000', '9999999', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d'));</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>・社員氏名：テスト
 ・基本給：500000
 ・対象年度：2025
@@ -1066,6 +1015,57 @@
 ・十二月住民税：33167
 ・利用ステータス：する</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>INSERT INTO ems.m_welfarefee VALUES
+('W00001', '2025', '東京都', '88000', '0', '93000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00002', '2025', '東京都', '98000', '93000', '101000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00003', '2025', '東京都', '104000', '101000', '107000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00004', '2025', '東京都', '110000', '107000', '114000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00005', '2025', '東京都', '118000', '114000', '122000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00006', '2025', '東京都', '126000', '122000', '130000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00007', '2025', '東京都', '134000', '130000', '138000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00008', '2025', '東京都', '142000', '138000', '146000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00009', '2025', '東京都', '150000', '146000', '155000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00010', '2025', '東京都', '160000', '155000', '165000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00011', '2025', '東京都', '170000', '165000', '175000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00012', '2025', '東京都', '180000', '175000', '185000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00013', '2025', '東京都', '190000', '185000', '195000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00014', '2025', '東京都', '200000', '195000', '210000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00015', '2025', '東京都', '220000', '210000', '230000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00016', '2025', '東京都', '240000', '230000', '250000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00017', '2025', '東京都', '260000', '250000', '270000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00018', '2025', '東京都', '280000', '270000', '290000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00019', '2025', '東京都', '300000', '290000', '310000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00020', '2025', '東京都', '320000', '310000', '330000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00021', '2025', '東京都', '340000', '330000', '350000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00022', '2025', '東京都', '360000', '350000', '370000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00023', '2025', '東京都', '380000', '370000', '395000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00024', '2025', '東京都', '410000', '395000', '425000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00025', '2025', '東京都', '440000', '425000', '455000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00026', '2025', '東京都', '470000', '455000', '485000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00027', '2025', '東京都', '500000', '485000', '515000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00028', '2025', '東京都', '530000', '515000', '545000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00029', '2025', '東京都', '560000', '545000', '575000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00030', '2025', '東京都', '590000', '575000', '605000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00031', '2025', '東京都', '620000', '605000', '635000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00032', '2025', '東京都', '650000', '635000', '665000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00033', '2025', '東京都', '680000', '665000', '695000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00034', '2025', '東京都', '710000', '695000', '730000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00035', '2025', '東京都', '750000', '730000', '770000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00036', '2025', '東京都', '790000', '770000', '810000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00037', '2025', '東京都', '830000', '810000', '855000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00038', '2025', '東京都', '880000', '855000', '905000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00039', '2025', '東京都', '930000', '905000', '955000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00040', '2025', '東京都', '980000', '955000', '1005000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00041', '2025', '東京都', '1030000', '1005000', '1055000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00042', '2025', '東京都', '1090000', '1055000', '1115000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00043', '2025', '東京都', '1150000', '1115000', '1175000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00044', '2025', '東京都', '1210000', '1175000', '1235000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00045', '2025', '東京都', '1270000', '1235000', '1295000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00046', '2025', '東京都', '1330000', '1295000', '1355000', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d')),
+('W00047', '2025', '東京都', '1390000', '1355000', '9999999', '9.84', '11.64', '18.3', '1', DATE_FORMAT(NOW(), '%Y%m%d'), DATE_FORMAT(NOW(), '%Y%m%d'));</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1858,6 +1858,21 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1879,21 +1894,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1906,17 +1906,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1927,39 +1927,6 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1993,9 +1960,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2005,7 +1984,28 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2954,7 +2954,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>78</v>
@@ -3058,252 +3058,252 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="104" t="s">
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="86" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="89">
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="110">
         <v>45804</v>
       </c>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="90"/>
-      <c r="BG4" s="86" t="s">
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="89" t="s">
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="90"/>
-      <c r="BM4" s="90"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="97"/>
+      <c r="BM4" s="97"/>
       <c r="BN4" s="29"/>
     </row>
     <row r="5" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="91" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="91" t="s">
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="81"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="81"/>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="81"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="91" t="s">
+      <c r="AY5" s="100"/>
+      <c r="AZ5" s="101"/>
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="100"/>
+      <c r="BC5" s="100"/>
+      <c r="BD5" s="100"/>
+      <c r="BE5" s="100"/>
+      <c r="BF5" s="100"/>
+      <c r="BG5" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="BH5" s="81"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="81"/>
-      <c r="BK5" s="82"/>
-      <c r="BL5" s="82"/>
-      <c r="BM5" s="82"/>
+      <c r="BH5" s="100"/>
+      <c r="BI5" s="101"/>
+      <c r="BJ5" s="100"/>
+      <c r="BK5" s="105"/>
+      <c r="BL5" s="105"/>
+      <c r="BM5" s="105"/>
       <c r="BN5" s="22"/>
     </row>
     <row r="6" spans="1:66" ht="17" thickTop="1"/>
     <row r="7" spans="1:66" s="30" customFormat="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="96"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="82"/>
       <c r="T7" s="83" t="s">
         <v>12</v>
       </c>
@@ -3363,24 +3363,24 @@
       <c r="BN7" s="85"/>
     </row>
     <row r="8" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A8" s="63">
+      <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="75" t="s">
         <v>17</v>
       </c>
@@ -3390,77 +3390,77 @@
       <c r="Q8" s="76"/>
       <c r="R8" s="76"/>
       <c r="S8" s="77"/>
-      <c r="T8" s="65" t="s">
+      <c r="T8" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="64" t="s">
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
       <c r="AY8" s="78"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="73"/>
-      <c r="BK8" s="74"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="73"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="65"/>
+      <c r="BG8" s="65"/>
+      <c r="BH8" s="65"/>
+      <c r="BI8" s="65"/>
+      <c r="BJ8" s="66"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="65"/>
+      <c r="BM8" s="65"/>
+      <c r="BN8" s="66"/>
     </row>
     <row r="9" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A9" s="63">
+      <c r="A9" s="68">
         <v>2</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="75" t="s">
         <v>66</v>
       </c>
@@ -3470,397 +3470,397 @@
       <c r="Q9" s="76"/>
       <c r="R9" s="76"/>
       <c r="S9" s="77"/>
-      <c r="T9" s="65" t="s">
+      <c r="T9" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="64" t="s">
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="64"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
       <c r="AY9" s="78"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="72"/>
-      <c r="BG9" s="72"/>
-      <c r="BH9" s="72"/>
-      <c r="BI9" s="72"/>
-      <c r="BJ9" s="73"/>
-      <c r="BK9" s="74"/>
-      <c r="BL9" s="72"/>
-      <c r="BM9" s="72"/>
-      <c r="BN9" s="73"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="63"/>
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="63"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="65"/>
+      <c r="BG9" s="65"/>
+      <c r="BH9" s="65"/>
+      <c r="BI9" s="65"/>
+      <c r="BJ9" s="66"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="65"/>
+      <c r="BM9" s="65"/>
+      <c r="BN9" s="66"/>
     </row>
     <row r="10" spans="1:66" s="34" customFormat="1" ht="206" customHeight="1">
-      <c r="A10" s="63">
+      <c r="A10" s="68">
         <v>3</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="65" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="64" t="s">
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
       <c r="AY10" s="78"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="70"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="72"/>
-      <c r="BG10" s="72"/>
-      <c r="BH10" s="72"/>
-      <c r="BI10" s="72"/>
-      <c r="BJ10" s="73"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="72"/>
-      <c r="BM10" s="72"/>
-      <c r="BN10" s="73"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="63"/>
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="63"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="65"/>
+      <c r="BJ10" s="66"/>
+      <c r="BK10" s="67"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="65"/>
+      <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:66" s="34" customFormat="1" ht="206" customHeight="1">
-      <c r="A11" s="63">
+      <c r="A11" s="68">
         <v>4</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="67" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="65" t="s">
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="80"/>
-      <c r="AL11" s="64" t="s">
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
       <c r="AY11" s="78"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="70"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="72"/>
-      <c r="BG11" s="72"/>
-      <c r="BH11" s="72"/>
-      <c r="BI11" s="72"/>
-      <c r="BJ11" s="73"/>
-      <c r="BK11" s="74"/>
-      <c r="BL11" s="72"/>
-      <c r="BM11" s="72"/>
-      <c r="BN11" s="73"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="63"/>
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="63"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="65"/>
+      <c r="BG11" s="65"/>
+      <c r="BH11" s="65"/>
+      <c r="BI11" s="65"/>
+      <c r="BJ11" s="66"/>
+      <c r="BK11" s="67"/>
+      <c r="BL11" s="65"/>
+      <c r="BM11" s="65"/>
+      <c r="BN11" s="66"/>
     </row>
     <row r="12" spans="1:66" s="34" customFormat="1" ht="297" customHeight="1">
-      <c r="A12" s="63">
+      <c r="A12" s="68">
         <v>5</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="65" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="80"/>
-      <c r="AL12" s="64" t="s">
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="111"/>
+      <c r="AK12" s="112"/>
+      <c r="AL12" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="64"/>
-      <c r="AX12" s="64"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
       <c r="AY12" s="78"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="70"/>
-      <c r="BE12" s="71"/>
-      <c r="BF12" s="72"/>
-      <c r="BG12" s="72"/>
-      <c r="BH12" s="72"/>
-      <c r="BI12" s="72"/>
-      <c r="BJ12" s="73"/>
-      <c r="BK12" s="74"/>
-      <c r="BL12" s="72"/>
-      <c r="BM12" s="72"/>
-      <c r="BN12" s="73"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="65"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="66"/>
+      <c r="BK12" s="67"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="65"/>
+      <c r="BN12" s="66"/>
     </row>
     <row r="13" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A13" s="63">
+      <c r="A13" s="68">
         <v>6</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67" t="s">
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="64" t="s">
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="64" t="s">
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="70"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="72"/>
-      <c r="BG13" s="72"/>
-      <c r="BH13" s="72"/>
-      <c r="BI13" s="72"/>
-      <c r="BJ13" s="73"/>
-      <c r="BK13" s="74"/>
-      <c r="BL13" s="72"/>
-      <c r="BM13" s="72"/>
-      <c r="BN13" s="73"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="63"/>
+      <c r="BA13" s="63"/>
+      <c r="BB13" s="63"/>
+      <c r="BC13" s="63"/>
+      <c r="BD13" s="63"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="65"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="65"/>
+      <c r="BI13" s="65"/>
+      <c r="BJ13" s="66"/>
+      <c r="BK13" s="67"/>
+      <c r="BL13" s="65"/>
+      <c r="BM13" s="65"/>
+      <c r="BN13" s="66"/>
     </row>
     <row r="14" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A14" s="63">
+      <c r="A14" s="68">
         <v>7</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="75" t="s">
         <v>17</v>
       </c>
@@ -3870,397 +3870,397 @@
       <c r="Q14" s="76"/>
       <c r="R14" s="76"/>
       <c r="S14" s="77"/>
-      <c r="T14" s="64" t="s">
+      <c r="T14" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="64" t="s">
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
       <c r="AY14" s="78"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="70"/>
-      <c r="BD14" s="70"/>
-      <c r="BE14" s="71"/>
-      <c r="BF14" s="72"/>
-      <c r="BG14" s="72"/>
-      <c r="BH14" s="72"/>
-      <c r="BI14" s="72"/>
-      <c r="BJ14" s="73"/>
-      <c r="BK14" s="74"/>
-      <c r="BL14" s="72"/>
-      <c r="BM14" s="72"/>
-      <c r="BN14" s="73"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="65"/>
+      <c r="BG14" s="65"/>
+      <c r="BH14" s="65"/>
+      <c r="BI14" s="65"/>
+      <c r="BJ14" s="66"/>
+      <c r="BK14" s="67"/>
+      <c r="BL14" s="65"/>
+      <c r="BM14" s="65"/>
+      <c r="BN14" s="66"/>
     </row>
     <row r="15" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A15" s="63">
+      <c r="A15" s="68">
         <v>8</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="64" t="s">
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="64" t="s">
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="70"/>
-      <c r="BD15" s="70"/>
-      <c r="BE15" s="71"/>
-      <c r="BF15" s="72"/>
-      <c r="BG15" s="72"/>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="72"/>
-      <c r="BJ15" s="73"/>
-      <c r="BK15" s="74"/>
-      <c r="BL15" s="72"/>
-      <c r="BM15" s="72"/>
-      <c r="BN15" s="73"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="64"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="66"/>
+      <c r="BK15" s="67"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="65"/>
+      <c r="BN15" s="66"/>
     </row>
     <row r="16" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A16" s="63">
+      <c r="A16" s="68">
         <v>9</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67" t="s">
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="64" t="s">
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="64" t="s">
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
-      <c r="BC16" s="70"/>
-      <c r="BD16" s="70"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="72"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="72"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="74"/>
-      <c r="BL16" s="72"/>
-      <c r="BM16" s="72"/>
-      <c r="BN16" s="73"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="64"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="66"/>
+      <c r="BK16" s="67"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="66"/>
     </row>
     <row r="17" spans="1:66" s="34" customFormat="1" ht="409" customHeight="1">
-      <c r="A17" s="63">
+      <c r="A17" s="68">
         <v>10</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="64" t="s">
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="64" t="s">
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="70"/>
-      <c r="BD17" s="70"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="72"/>
-      <c r="BG17" s="72"/>
-      <c r="BH17" s="72"/>
-      <c r="BI17" s="72"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="74"/>
-      <c r="BL17" s="72"/>
-      <c r="BM17" s="72"/>
-      <c r="BN17" s="73"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63"/>
+      <c r="BE17" s="64"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="66"/>
+      <c r="BK17" s="67"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="66"/>
     </row>
     <row r="18" spans="1:66" s="34" customFormat="1" ht="255" customHeight="1">
-      <c r="A18" s="63">
+      <c r="A18" s="68">
         <v>11</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="67" t="s">
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="64" t="s">
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="64" t="s">
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="71"/>
-      <c r="BF18" s="72"/>
-      <c r="BG18" s="72"/>
-      <c r="BH18" s="72"/>
-      <c r="BI18" s="72"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="74"/>
-      <c r="BL18" s="72"/>
-      <c r="BM18" s="72"/>
-      <c r="BN18" s="73"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
+      <c r="BD18" s="63"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="66"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="66"/>
     </row>
     <row r="19" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A19" s="63">
+      <c r="A19" s="68">
         <v>12</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
       <c r="M19" s="75" t="s">
         <v>17</v>
       </c>
@@ -4270,57 +4270,57 @@
       <c r="Q19" s="76"/>
       <c r="R19" s="76"/>
       <c r="S19" s="77"/>
-      <c r="T19" s="64" t="s">
+      <c r="T19" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="64" t="s">
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="64"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="64"/>
-      <c r="AW19" s="64"/>
-      <c r="AX19" s="64"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
       <c r="AY19" s="78"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
-      <c r="BC19" s="70"/>
-      <c r="BD19" s="70"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="72"/>
-      <c r="BG19" s="72"/>
-      <c r="BH19" s="72"/>
-      <c r="BI19" s="72"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="74"/>
-      <c r="BL19" s="72"/>
-      <c r="BM19" s="72"/>
-      <c r="BN19" s="73"/>
+      <c r="AZ19" s="63"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="64"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="66"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="66"/>
     </row>
     <row r="20" spans="1:66">
       <c r="A20" s="31"/>
@@ -4528,6 +4528,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:AK18"/>
+    <mergeCell ref="AL18:AY18"/>
+    <mergeCell ref="AZ18:BE18"/>
+    <mergeCell ref="BF18:BJ18"/>
+    <mergeCell ref="BK18:BN18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:AK19"/>
+    <mergeCell ref="AL19:AY19"/>
+    <mergeCell ref="AZ19:BE19"/>
+    <mergeCell ref="BF19:BJ19"/>
+    <mergeCell ref="BK19:BN19"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BN9"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="BF11:BJ11"/>
+    <mergeCell ref="BK11:BN11"/>
+    <mergeCell ref="AL12:AY12"/>
+    <mergeCell ref="AZ12:BE12"/>
+    <mergeCell ref="BF12:BJ12"/>
+    <mergeCell ref="BK12:BN12"/>
+    <mergeCell ref="AZ11:BE11"/>
+    <mergeCell ref="AZ9:BE9"/>
+    <mergeCell ref="AZ10:BE10"/>
+    <mergeCell ref="AZ8:BE8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:AK12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:AK8"/>
+    <mergeCell ref="AL8:AY8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:AK10"/>
+    <mergeCell ref="AL10:AY10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:AK9"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:AK11"/>
+    <mergeCell ref="AL11:AY11"/>
+    <mergeCell ref="AL9:AY9"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="AZ7:BE7"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="BK7:BN7"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="BJ4:BM4"/>
+    <mergeCell ref="BA5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:AK7"/>
+    <mergeCell ref="AL7:AY7"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AW4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AW5"/>
+    <mergeCell ref="AZ13:BE13"/>
+    <mergeCell ref="BF13:BJ13"/>
+    <mergeCell ref="BK13:BN13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:AK14"/>
+    <mergeCell ref="AL14:AY14"/>
+    <mergeCell ref="AZ14:BE14"/>
+    <mergeCell ref="BF14:BJ14"/>
+    <mergeCell ref="BK14:BN14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:AK13"/>
+    <mergeCell ref="AL13:AY13"/>
     <mergeCell ref="AZ17:BE17"/>
     <mergeCell ref="BF17:BJ17"/>
     <mergeCell ref="BK17:BN17"/>
@@ -4552,103 +4649,6 @@
     <mergeCell ref="M15:S15"/>
     <mergeCell ref="T15:AK15"/>
     <mergeCell ref="AL15:AY15"/>
-    <mergeCell ref="AZ13:BE13"/>
-    <mergeCell ref="BF13:BJ13"/>
-    <mergeCell ref="BK13:BN13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:AK14"/>
-    <mergeCell ref="AL14:AY14"/>
-    <mergeCell ref="AZ14:BE14"/>
-    <mergeCell ref="BF14:BJ14"/>
-    <mergeCell ref="BK14:BN14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:AK13"/>
-    <mergeCell ref="AL13:AY13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:AK7"/>
-    <mergeCell ref="AL7:AY7"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AW4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AW5"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="AZ7:BE7"/>
-    <mergeCell ref="BF7:BJ7"/>
-    <mergeCell ref="BK7:BN7"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="BA4:BF4"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="BJ4:BM4"/>
-    <mergeCell ref="BA5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:AK12"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:AK8"/>
-    <mergeCell ref="AL8:AY8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:AK10"/>
-    <mergeCell ref="AL10:AY10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:AK9"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:AK11"/>
-    <mergeCell ref="AL11:AY11"/>
-    <mergeCell ref="AL9:AY9"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BF9:BJ9"/>
-    <mergeCell ref="BK9:BN9"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="BF11:BJ11"/>
-    <mergeCell ref="BK11:BN11"/>
-    <mergeCell ref="AL12:AY12"/>
-    <mergeCell ref="AZ12:BE12"/>
-    <mergeCell ref="BF12:BJ12"/>
-    <mergeCell ref="BK12:BN12"/>
-    <mergeCell ref="AZ11:BE11"/>
-    <mergeCell ref="AZ9:BE9"/>
-    <mergeCell ref="AZ10:BE10"/>
-    <mergeCell ref="AZ8:BE8"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:AK18"/>
-    <mergeCell ref="AL18:AY18"/>
-    <mergeCell ref="AZ18:BE18"/>
-    <mergeCell ref="BF18:BJ18"/>
-    <mergeCell ref="BK18:BN18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:AK19"/>
-    <mergeCell ref="AL19:AY19"/>
-    <mergeCell ref="AZ19:BE19"/>
-    <mergeCell ref="BF19:BJ19"/>
-    <mergeCell ref="BK19:BN19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
